--- a/formatos_hoja_de_calculo/02-10391.xlsx
+++ b/formatos_hoja_de_calculo/02-10391.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\registro_academico\formatos_hoja_de_calculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436FC564-B3D8-47FF-8381-E508CEBF1FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD847ACE-8968-4AEF-BA6C-15EE791A5DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="15" windowWidth="14610" windowHeight="17250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="listado_alumnos" sheetId="1" r:id="rId1"/>
@@ -10566,16 +10566,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AG582"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
-      <selection activeCell="H574" sqref="H574"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" hidden="1"/>
     <col min="8" max="8" width="2.7109375" customWidth="1"/>
     <col min="10" max="13" width="9.140625" hidden="1"/>
     <col min="14" max="14" width="15.140625" hidden="1" customWidth="1"/>
@@ -10761,7 +10761,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -10857,7 +10857,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -10953,7 +10953,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -11049,7 +11049,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -11145,7 +11145,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -11241,7 +11241,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -11337,7 +11337,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -11433,7 +11433,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -11529,7 +11529,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -11625,7 +11625,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -11721,7 +11721,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -11817,7 +11817,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -12009,7 +12009,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -12105,7 +12105,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -12201,7 +12201,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -12393,7 +12393,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -12482,7 +12482,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -12578,7 +12578,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -12674,7 +12674,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -12773,7 +12773,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>22</v>
       </c>
@@ -12965,7 +12965,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>24</v>
       </c>
@@ -13157,7 +13157,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -13253,7 +13253,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -13445,7 +13445,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>29</v>
       </c>
@@ -13637,7 +13637,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>31</v>
       </c>
@@ -13829,7 +13829,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>33</v>
       </c>
@@ -14024,7 +14024,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>35</v>
       </c>
@@ -14219,7 +14219,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>37</v>
       </c>
@@ -14411,7 +14411,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>39</v>
       </c>
@@ -14508,7 +14508,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>40</v>
       </c>
@@ -14604,7 +14604,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>41</v>
       </c>
@@ -14700,7 +14700,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>42</v>
       </c>
@@ -14796,7 +14796,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43</v>
       </c>
@@ -15084,7 +15084,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>46</v>
       </c>
@@ -15180,7 +15180,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>47</v>
       </c>
@@ -15276,7 +15276,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>48</v>
       </c>
@@ -15372,7 +15372,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>49</v>
       </c>
@@ -15468,7 +15468,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>50</v>
       </c>
@@ -15564,7 +15564,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>51</v>
       </c>
@@ -15660,7 +15660,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>52</v>
       </c>
@@ -15756,7 +15756,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>53</v>
       </c>
@@ -15852,7 +15852,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>54</v>
       </c>
@@ -15948,7 +15948,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>55</v>
       </c>
@@ -16044,7 +16044,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>56</v>
       </c>
@@ -16140,7 +16140,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>57</v>
       </c>
@@ -16236,7 +16236,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>58</v>
       </c>
@@ -16332,7 +16332,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>59</v>
       </c>
@@ -16428,7 +16428,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>60</v>
       </c>
@@ -16524,7 +16524,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>61</v>
       </c>
@@ -16716,7 +16716,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>63</v>
       </c>
@@ -16908,7 +16908,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>65</v>
       </c>
@@ -17004,7 +17004,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>66</v>
       </c>
@@ -17292,7 +17292,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>69</v>
       </c>
@@ -17388,7 +17388,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>70</v>
       </c>
@@ -17484,7 +17484,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>71</v>
       </c>
@@ -17580,7 +17580,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>72</v>
       </c>
@@ -17868,7 +17868,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>75</v>
       </c>
@@ -17964,7 +17964,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>76</v>
       </c>
@@ -18060,7 +18060,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>77</v>
       </c>
@@ -18156,7 +18156,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>78</v>
       </c>
@@ -18252,7 +18252,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>79</v>
       </c>
@@ -18348,7 +18348,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>80</v>
       </c>
@@ -18444,7 +18444,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>81</v>
       </c>
@@ -18540,7 +18540,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>82</v>
       </c>
@@ -18735,7 +18735,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>84</v>
       </c>
@@ -18831,7 +18831,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>85</v>
       </c>
@@ -18927,7 +18927,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>86</v>
       </c>
@@ -19023,7 +19023,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>87</v>
       </c>
@@ -19215,7 +19215,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>89</v>
       </c>
@@ -19311,7 +19311,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>90</v>
       </c>
@@ -19407,7 +19407,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>91</v>
       </c>
@@ -19503,7 +19503,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>92</v>
       </c>
@@ -19695,7 +19695,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>94</v>
       </c>
@@ -19791,7 +19791,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>95</v>
       </c>
@@ -19887,7 +19887,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>96</v>
       </c>
@@ -19983,7 +19983,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>97</v>
       </c>
@@ -20079,7 +20079,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>98</v>
       </c>
@@ -20175,7 +20175,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>99</v>
       </c>
@@ -20271,7 +20271,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>100</v>
       </c>
@@ -20367,7 +20367,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>101</v>
       </c>
@@ -20463,7 +20463,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>102</v>
       </c>
@@ -20559,7 +20559,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>103</v>
       </c>
@@ -20655,7 +20655,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>104</v>
       </c>
@@ -20751,7 +20751,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>105</v>
       </c>
@@ -20847,7 +20847,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>106</v>
       </c>
@@ -20943,7 +20943,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>107</v>
       </c>
@@ -21037,7 +21037,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>108</v>
       </c>
@@ -21133,7 +21133,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>109</v>
       </c>
@@ -21229,7 +21229,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>110</v>
       </c>
@@ -21325,7 +21325,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>111</v>
       </c>
@@ -21421,7 +21421,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>112</v>
       </c>
@@ -21517,7 +21517,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>113</v>
       </c>
@@ -21613,7 +21613,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>114</v>
       </c>
@@ -21710,7 +21710,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>115</v>
       </c>
@@ -21806,7 +21806,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>116</v>
       </c>
@@ -21902,7 +21902,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>117</v>
       </c>
@@ -21998,7 +21998,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>118</v>
       </c>
@@ -22094,7 +22094,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>119</v>
       </c>
@@ -22190,7 +22190,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>120</v>
       </c>
@@ -22286,7 +22286,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>121</v>
       </c>
@@ -22382,7 +22382,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="126" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>122</v>
       </c>
@@ -22478,7 +22478,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>123</v>
       </c>
@@ -22574,7 +22574,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>124</v>
       </c>
@@ -22670,7 +22670,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>125</v>
       </c>
@@ -22764,7 +22764,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>126</v>
       </c>
@@ -22860,7 +22860,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>127</v>
       </c>
@@ -22956,7 +22956,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>128</v>
       </c>
@@ -23052,7 +23052,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>129</v>
       </c>
@@ -23148,7 +23148,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>130</v>
       </c>
@@ -23244,7 +23244,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>131</v>
       </c>
@@ -23340,7 +23340,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>132</v>
       </c>
@@ -23436,7 +23436,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>133</v>
       </c>
@@ -23532,7 +23532,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>134</v>
       </c>
@@ -23628,7 +23628,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>135</v>
       </c>
@@ -23724,7 +23724,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>136</v>
       </c>
@@ -23820,7 +23820,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>137</v>
       </c>
@@ -23916,7 +23916,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>138</v>
       </c>
@@ -24012,7 +24012,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>139</v>
       </c>
@@ -24105,7 +24105,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="144" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>140</v>
       </c>
@@ -24201,7 +24201,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="145" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>141</v>
       </c>
@@ -24297,7 +24297,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="146" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>142</v>
       </c>
@@ -24393,7 +24393,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="147" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>143</v>
       </c>
@@ -24489,7 +24489,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="148" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>144</v>
       </c>
@@ -24585,7 +24585,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="149" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>145</v>
       </c>
@@ -24681,7 +24681,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="150" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>146</v>
       </c>
@@ -24777,7 +24777,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="151" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>147</v>
       </c>
@@ -24873,7 +24873,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="152" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>148</v>
       </c>
@@ -24969,7 +24969,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="153" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>149</v>
       </c>
@@ -25065,7 +25065,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="154" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>150</v>
       </c>
@@ -25161,7 +25161,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="155" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>151</v>
       </c>
@@ -25257,7 +25257,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="156" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>152</v>
       </c>
@@ -25353,7 +25353,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="157" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>153</v>
       </c>
@@ -25446,7 +25446,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="158" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>154</v>
       </c>
@@ -25542,7 +25542,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="159" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>155</v>
       </c>
@@ -25638,7 +25638,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="160" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>156</v>
       </c>
@@ -25734,7 +25734,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="161" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>157</v>
       </c>
@@ -25830,7 +25830,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="162" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>158</v>
       </c>
@@ -25926,7 +25926,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="163" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>159</v>
       </c>
@@ -26022,7 +26022,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="164" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>160</v>
       </c>
@@ -26118,7 +26118,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="165" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>161</v>
       </c>
@@ -26214,7 +26214,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="166" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>162</v>
       </c>
@@ -26310,7 +26310,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="167" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>163</v>
       </c>
@@ -26406,7 +26406,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="168" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>164</v>
       </c>
@@ -26502,7 +26502,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="169" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>165</v>
       </c>
@@ -26595,7 +26595,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="170" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>166</v>
       </c>
@@ -26691,7 +26691,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="171" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>167</v>
       </c>
@@ -26787,7 +26787,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="172" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>168</v>
       </c>
@@ -26881,7 +26881,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="173" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>169</v>
       </c>
@@ -26977,7 +26977,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="174" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>170</v>
       </c>
@@ -27073,7 +27073,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="175" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>171</v>
       </c>
@@ -27169,7 +27169,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="176" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>172</v>
       </c>
@@ -27265,7 +27265,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="177" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>173</v>
       </c>
@@ -27361,7 +27361,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="178" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>174</v>
       </c>
@@ -27455,7 +27455,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="179" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>175</v>
       </c>
@@ -27551,7 +27551,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="180" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>176</v>
       </c>
@@ -27645,7 +27645,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="181" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>177</v>
       </c>
@@ -27741,7 +27741,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="182" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>178</v>
       </c>
@@ -27837,7 +27837,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="183" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>179</v>
       </c>
@@ -27933,7 +27933,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="184" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>180</v>
       </c>
@@ -28029,7 +28029,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="185" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>181</v>
       </c>
@@ -28125,7 +28125,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="186" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>182</v>
       </c>
@@ -28221,7 +28221,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="187" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>183</v>
       </c>
@@ -28317,7 +28317,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="188" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>184</v>
       </c>
@@ -28413,7 +28413,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="189" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>185</v>
       </c>
@@ -28509,7 +28509,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="190" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>186</v>
       </c>
@@ -28606,7 +28606,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="191" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>187</v>
       </c>
@@ -28702,7 +28702,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="192" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>188</v>
       </c>
@@ -28798,7 +28798,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="193" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>189</v>
       </c>
@@ -28892,7 +28892,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="194" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>190</v>
       </c>
@@ -28988,7 +28988,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="195" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>191</v>
       </c>
@@ -29084,7 +29084,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="196" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>192</v>
       </c>
@@ -29178,7 +29178,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="197" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>193</v>
       </c>
@@ -29274,7 +29274,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="198" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>194</v>
       </c>
@@ -29370,7 +29370,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="199" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>195</v>
       </c>
@@ -29466,7 +29466,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="200" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>196</v>
       </c>
@@ -29562,7 +29562,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="201" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>197</v>
       </c>
@@ -29658,7 +29658,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="202" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>198</v>
       </c>
@@ -29754,7 +29754,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="203" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>199</v>
       </c>
@@ -29850,7 +29850,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="204" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>200</v>
       </c>
@@ -29946,7 +29946,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="205" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>201</v>
       </c>
@@ -30042,7 +30042,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="206" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>202</v>
       </c>
@@ -30138,7 +30138,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="207" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>203</v>
       </c>
@@ -30237,7 +30237,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="208" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>204</v>
       </c>
@@ -30333,7 +30333,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="209" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>205</v>
       </c>
@@ -30429,7 +30429,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="210" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>206</v>
       </c>
@@ -30518,7 +30518,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="211" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>207</v>
       </c>
@@ -30614,7 +30614,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="212" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>208</v>
       </c>
@@ -30710,7 +30710,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="213" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>209</v>
       </c>
@@ -30806,7 +30806,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="214" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>210</v>
       </c>
@@ -30902,7 +30902,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="215" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>211</v>
       </c>
@@ -30998,7 +30998,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="216" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>212</v>
       </c>
@@ -31094,7 +31094,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="217" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>213</v>
       </c>
@@ -31190,7 +31190,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="218" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>214</v>
       </c>
@@ -31286,7 +31286,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="219" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>215</v>
       </c>
@@ -31382,7 +31382,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="220" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>216</v>
       </c>
@@ -31478,7 +31478,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="221" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>217</v>
       </c>
@@ -31574,7 +31574,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="222" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>218</v>
       </c>
@@ -31670,7 +31670,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="223" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>219</v>
       </c>
@@ -31769,7 +31769,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="224" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>220</v>
       </c>
@@ -31865,7 +31865,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="225" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>221</v>
       </c>
@@ -31961,7 +31961,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="226" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>222</v>
       </c>
@@ -32057,7 +32057,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="227" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>223</v>
       </c>
@@ -32153,7 +32153,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="228" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>224</v>
       </c>
@@ -32249,7 +32249,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="229" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>225</v>
       </c>
@@ -32345,7 +32345,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="230" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>226</v>
       </c>
@@ -32441,7 +32441,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="231" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>227</v>
       </c>
@@ -32537,7 +32537,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="232" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>228</v>
       </c>
@@ -32631,7 +32631,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="233" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>229</v>
       </c>
@@ -32727,7 +32727,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="234" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>230</v>
       </c>
@@ -32823,7 +32823,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="235" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>231</v>
       </c>
@@ -32919,7 +32919,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="236" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>232</v>
       </c>
@@ -33015,7 +33015,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="237" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>233</v>
       </c>
@@ -33111,7 +33111,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="238" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>234</v>
       </c>
@@ -33207,7 +33207,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="239" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>235</v>
       </c>
@@ -33303,7 +33303,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="240" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>236</v>
       </c>
@@ -33396,7 +33396,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="241" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>237</v>
       </c>
@@ -33492,7 +33492,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="242" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>238</v>
       </c>
@@ -33589,7 +33589,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="243" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>239</v>
       </c>
@@ -33685,7 +33685,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="244" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>240</v>
       </c>
@@ -33781,7 +33781,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="245" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>241</v>
       </c>
@@ -33877,7 +33877,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="246" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>242</v>
       </c>
@@ -33973,7 +33973,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="247" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>243</v>
       </c>
@@ -34027,7 +34027,7 @@
       <c r="AA247" s="2"/>
       <c r="AB247" s="2"/>
     </row>
-    <row r="248" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>244</v>
       </c>
@@ -34123,7 +34123,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="249" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>245</v>
       </c>
@@ -34219,7 +34219,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="250" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>246</v>
       </c>
@@ -34315,7 +34315,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="251" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>247</v>
       </c>
@@ -34411,7 +34411,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="252" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>248</v>
       </c>
@@ -34507,7 +34507,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="253" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>249</v>
       </c>
@@ -34603,7 +34603,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="254" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>250</v>
       </c>
@@ -34699,7 +34699,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="255" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>251</v>
       </c>
@@ -34795,7 +34795,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="256" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>252</v>
       </c>
@@ -34891,7 +34891,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="257" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>253</v>
       </c>
@@ -34982,7 +34982,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="258" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>254</v>
       </c>
@@ -35078,7 +35078,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="259" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>255</v>
       </c>
@@ -35174,7 +35174,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="260" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>256</v>
       </c>
@@ -35270,7 +35270,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="261" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>257</v>
       </c>
@@ -35366,7 +35366,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="262" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>258</v>
       </c>
@@ -35457,7 +35457,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="263" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>259</v>
       </c>
@@ -35553,7 +35553,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="264" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>260</v>
       </c>
@@ -35649,7 +35649,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="265" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>261</v>
       </c>
@@ -35745,7 +35745,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="266" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>262</v>
       </c>
@@ -35841,7 +35841,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="267" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>263</v>
       </c>
@@ -35937,7 +35937,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="268" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>264</v>
       </c>
@@ -36033,7 +36033,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="269" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>265</v>
       </c>
@@ -36129,7 +36129,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="270" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>266</v>
       </c>
@@ -36225,7 +36225,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="271" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>267</v>
       </c>
@@ -36321,7 +36321,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="272" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>268</v>
       </c>
@@ -36417,7 +36417,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="273" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>269</v>
       </c>
@@ -36513,7 +36513,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="274" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>270</v>
       </c>
@@ -36599,7 +36599,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="275" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>271</v>
       </c>
@@ -36692,7 +36692,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="276" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>272</v>
       </c>
@@ -36788,7 +36788,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="277" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>273</v>
       </c>
@@ -36884,7 +36884,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="278" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>274</v>
       </c>
@@ -36980,7 +36980,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="279" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>275</v>
       </c>
@@ -37076,7 +37076,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="280" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>276</v>
       </c>
@@ -37172,7 +37172,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="281" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>277</v>
       </c>
@@ -37268,7 +37268,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="282" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>278</v>
       </c>
@@ -37364,7 +37364,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="283" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>279</v>
       </c>
@@ -37460,7 +37460,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="284" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>280</v>
       </c>
@@ -37556,7 +37556,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="285" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>281</v>
       </c>
@@ -37652,7 +37652,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="286" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>282</v>
       </c>
@@ -37748,7 +37748,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="287" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>283</v>
       </c>
@@ -37844,7 +37844,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="288" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>284</v>
       </c>
@@ -37940,7 +37940,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="289" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>285</v>
       </c>
@@ -38036,7 +38036,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="290" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>286</v>
       </c>
@@ -38125,7 +38125,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="291" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>287</v>
       </c>
@@ -38221,7 +38221,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="292" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>288</v>
       </c>
@@ -38317,7 +38317,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="293" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>289</v>
       </c>
@@ -38413,7 +38413,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="294" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>290</v>
       </c>
@@ -38505,7 +38505,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="295" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>291</v>
       </c>
@@ -38601,7 +38601,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="296" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>292</v>
       </c>
@@ -38697,7 +38697,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="297" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>293</v>
       </c>
@@ -38793,7 +38793,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="298" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>294</v>
       </c>
@@ -38889,7 +38889,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="299" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>295</v>
       </c>
@@ -38985,7 +38985,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="300" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>296</v>
       </c>
@@ -39081,7 +39081,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="301" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>297</v>
       </c>
@@ -39177,7 +39177,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="302" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>298</v>
       </c>
@@ -39273,7 +39273,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="303" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>299</v>
       </c>
@@ -39369,7 +39369,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="304" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>300</v>
       </c>
@@ -39465,7 +39465,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="305" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>301</v>
       </c>
@@ -39561,7 +39561,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="306" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>302</v>
       </c>
@@ -39657,7 +39657,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="307" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>303</v>
       </c>
@@ -39751,7 +39751,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="308" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>304</v>
       </c>
@@ -39847,7 +39847,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="309" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>305</v>
       </c>
@@ -39943,7 +39943,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="310" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>306</v>
       </c>
@@ -40039,7 +40039,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="311" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>307</v>
       </c>
@@ -40135,7 +40135,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="312" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>308</v>
       </c>
@@ -40231,7 +40231,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="313" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>309</v>
       </c>
@@ -40327,7 +40327,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="314" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>310</v>
       </c>
@@ -40423,7 +40423,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="315" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>311</v>
       </c>
@@ -40519,7 +40519,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="316" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>312</v>
       </c>
@@ -40615,7 +40615,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="317" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>313</v>
       </c>
@@ -40711,7 +40711,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="318" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>314</v>
       </c>
@@ -40807,7 +40807,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="319" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>315</v>
       </c>
@@ -40903,7 +40903,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="320" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>316</v>
       </c>
@@ -41002,7 +41002,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="321" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>317</v>
       </c>
@@ -41098,7 +41098,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="322" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>318</v>
       </c>
@@ -41194,7 +41194,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="323" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>319</v>
       </c>
@@ -41290,7 +41290,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="324" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>320</v>
       </c>
@@ -41379,7 +41379,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="325" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>321</v>
       </c>
@@ -41475,7 +41475,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="326" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>322</v>
       </c>
@@ -41571,7 +41571,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="327" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>323</v>
       </c>
@@ -41667,7 +41667,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="328" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>324</v>
       </c>
@@ -41761,7 +41761,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="329" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>325</v>
       </c>
@@ -41857,7 +41857,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="330" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>326</v>
       </c>
@@ -41953,7 +41953,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="331" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>327</v>
       </c>
@@ -42044,7 +42044,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="332" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>328</v>
       </c>
@@ -42135,7 +42135,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="333" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>329</v>
       </c>
@@ -42231,7 +42231,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="334" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>330</v>
       </c>
@@ -42322,7 +42322,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="335" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>331</v>
       </c>
@@ -42413,7 +42413,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="336" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>332</v>
       </c>
@@ -42509,7 +42509,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="337" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>333</v>
       </c>
@@ -42605,7 +42605,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="338" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>334</v>
       </c>
@@ -42701,7 +42701,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="339" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>335</v>
       </c>
@@ -42797,7 +42797,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="340" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>336</v>
       </c>
@@ -42893,7 +42893,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="341" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>337</v>
       </c>
@@ -42989,7 +42989,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="342" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>338</v>
       </c>
@@ -43082,7 +43082,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="343" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>339</v>
       </c>
@@ -43178,7 +43178,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="344" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>340</v>
       </c>
@@ -43274,7 +43274,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="345" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>341</v>
       </c>
@@ -43370,7 +43370,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="346" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>342</v>
       </c>
@@ -43466,7 +43466,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="347" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>343</v>
       </c>
@@ -43555,7 +43555,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="348" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>344</v>
       </c>
@@ -43651,7 +43651,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="349" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>345</v>
       </c>
@@ -43747,7 +43747,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="350" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>346</v>
       </c>
@@ -43843,7 +43843,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="351" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>347</v>
       </c>
@@ -43939,7 +43939,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="352" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>348</v>
       </c>
@@ -44035,7 +44035,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="353" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>349</v>
       </c>
@@ -44131,7 +44131,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="354" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>350</v>
       </c>
@@ -44227,7 +44227,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="355" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>351</v>
       </c>
@@ -44323,7 +44323,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="356" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>352</v>
       </c>
@@ -44419,7 +44419,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="357" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>353</v>
       </c>
@@ -44515,7 +44515,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="358" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>354</v>
       </c>
@@ -44611,7 +44611,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="359" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>355</v>
       </c>
@@ -44707,7 +44707,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="360" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>356</v>
       </c>
@@ -44803,7 +44803,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="361" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>357</v>
       </c>
@@ -44899,7 +44899,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="362" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>358</v>
       </c>
@@ -44995,7 +44995,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="363" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>359</v>
       </c>
@@ -45091,7 +45091,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="364" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>360</v>
       </c>
@@ -45187,7 +45187,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="365" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>361</v>
       </c>
@@ -45283,7 +45283,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="366" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>362</v>
       </c>
@@ -45379,7 +45379,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="367" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>363</v>
       </c>
@@ -45475,7 +45475,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="368" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>364</v>
       </c>
@@ -45571,7 +45571,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="369" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>365</v>
       </c>
@@ -45667,7 +45667,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="370" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>366</v>
       </c>
@@ -45763,7 +45763,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="371" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>367</v>
       </c>
@@ -45859,7 +45859,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="372" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>368</v>
       </c>
@@ -45955,7 +45955,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="373" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>369</v>
       </c>
@@ -46051,7 +46051,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="374" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>370</v>
       </c>
@@ -46147,7 +46147,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="375" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>371</v>
       </c>
@@ -46243,7 +46243,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="376" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>372</v>
       </c>
@@ -46339,7 +46339,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="377" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>373</v>
       </c>
@@ -46435,7 +46435,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="378" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>374</v>
       </c>
@@ -46531,7 +46531,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="379" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>375</v>
       </c>
@@ -46627,7 +46627,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="380" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>376</v>
       </c>
@@ -46723,7 +46723,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="381" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>377</v>
       </c>
@@ -46819,7 +46819,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="382" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>378</v>
       </c>
@@ -46915,7 +46915,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="383" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>379</v>
       </c>
@@ -47011,7 +47011,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="384" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>380</v>
       </c>
@@ -47107,7 +47107,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="385" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>381</v>
       </c>
@@ -47203,7 +47203,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="386" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>382</v>
       </c>
@@ -47299,7 +47299,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="387" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>383</v>
       </c>
@@ -47395,7 +47395,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="388" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>384</v>
       </c>
@@ -47491,7 +47491,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="389" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>385</v>
       </c>
@@ -47587,7 +47587,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="390" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>386</v>
       </c>
@@ -47683,7 +47683,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="391" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>387</v>
       </c>
@@ -47779,7 +47779,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="392" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>388</v>
       </c>
@@ -47875,7 +47875,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="393" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>389</v>
       </c>
@@ -47971,7 +47971,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="394" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>390</v>
       </c>
@@ -48067,7 +48067,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="395" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>391</v>
       </c>
@@ -48163,7 +48163,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="396" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>392</v>
       </c>
@@ -48259,7 +48259,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="397" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>393</v>
       </c>
@@ -48355,7 +48355,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="398" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>394</v>
       </c>
@@ -48451,7 +48451,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="399" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>395</v>
       </c>
@@ -48544,7 +48544,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="400" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>396</v>
       </c>
@@ -48640,7 +48640,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="401" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>397</v>
       </c>
@@ -48736,7 +48736,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="402" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>398</v>
       </c>
@@ -48832,7 +48832,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="403" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>399</v>
       </c>
@@ -48928,7 +48928,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="404" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
         <v>400</v>
       </c>
@@ -49024,7 +49024,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="405" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>401</v>
       </c>
@@ -49120,7 +49120,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="406" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>402</v>
       </c>
@@ -49214,7 +49214,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="407" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
         <v>403</v>
       </c>
@@ -49305,7 +49305,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="408" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>404</v>
       </c>
@@ -49396,7 +49396,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="409" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>405</v>
       </c>
@@ -49487,7 +49487,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="410" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>406</v>
       </c>
@@ -49578,7 +49578,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="411" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>407</v>
       </c>
@@ -49669,7 +49669,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="412" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>408</v>
       </c>
@@ -49760,7 +49760,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="413" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
         <v>409</v>
       </c>
@@ -49851,7 +49851,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="414" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>410</v>
       </c>
@@ -49942,7 +49942,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="415" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
         <v>411</v>
       </c>
@@ -50033,7 +50033,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="416" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>412</v>
       </c>
@@ -50120,7 +50120,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="417" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
         <v>413</v>
       </c>
@@ -50211,7 +50211,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="418" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
         <v>414</v>
       </c>
@@ -50302,7 +50302,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="419" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
         <v>415</v>
       </c>
@@ -50393,7 +50393,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="420" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
         <v>416</v>
       </c>
@@ -50484,7 +50484,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="421" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
         <v>417</v>
       </c>
@@ -50575,7 +50575,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="422" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
         <v>418</v>
       </c>
@@ -50666,7 +50666,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="423" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>419</v>
       </c>
@@ -50757,7 +50757,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="424" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>420</v>
       </c>
@@ -50836,7 +50836,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="425" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
         <v>421</v>
       </c>
@@ -50927,7 +50927,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="426" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
         <v>422</v>
       </c>
@@ -51018,7 +51018,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="427" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>423</v>
       </c>
@@ -51109,7 +51109,7 @@
         <v>2558</v>
       </c>
     </row>
-    <row r="428" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>424</v>
       </c>
@@ -51200,7 +51200,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="429" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
         <v>425</v>
       </c>
@@ -51291,7 +51291,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="430" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
         <v>426</v>
       </c>
@@ -51382,7 +51382,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="431" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
         <v>427</v>
       </c>
@@ -51473,7 +51473,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="432" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>428</v>
       </c>
@@ -51564,7 +51564,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="433" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>429</v>
       </c>
@@ -51655,7 +51655,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="434" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
         <v>430</v>
       </c>
@@ -51746,7 +51746,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="435" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
         <v>431</v>
       </c>
@@ -51837,7 +51837,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="436" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>432</v>
       </c>
@@ -51924,7 +51924,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="437" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>433</v>
       </c>
@@ -52015,7 +52015,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="438" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
         <v>434</v>
       </c>
@@ -52106,7 +52106,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="439" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>435</v>
       </c>
@@ -52197,7 +52197,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="440" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
         <v>436</v>
       </c>
@@ -52288,7 +52288,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="441" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
         <v>437</v>
       </c>
@@ -52379,7 +52379,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="442" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
         <v>438</v>
       </c>
@@ -52470,7 +52470,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="443" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
         <v>439</v>
       </c>
@@ -52561,7 +52561,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="444" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
         <v>440</v>
       </c>
@@ -52652,7 +52652,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="445" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
         <v>441</v>
       </c>
@@ -52743,7 +52743,7 @@
         <v>2644</v>
       </c>
     </row>
-    <row r="446" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
         <v>442</v>
       </c>
@@ -52834,7 +52834,7 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="447" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
         <v>443</v>
       </c>
@@ -52921,7 +52921,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="448" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
         <v>444</v>
       </c>
@@ -53012,7 +53012,7 @@
         <v>2661</v>
       </c>
     </row>
-    <row r="449" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
         <v>445</v>
       </c>
@@ -53103,7 +53103,7 @@
         <v>2666</v>
       </c>
     </row>
-    <row r="450" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
         <v>446</v>
       </c>
@@ -53194,7 +53194,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="451" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
         <v>447</v>
       </c>
@@ -53277,7 +53277,7 @@
         <v>2673</v>
       </c>
     </row>
-    <row r="452" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
         <v>448</v>
       </c>
@@ -53364,7 +53364,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="453" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="2">
         <v>449</v>
       </c>
@@ -53455,7 +53455,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="454" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
         <v>450</v>
       </c>
@@ -53542,7 +53542,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="455" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="2">
         <v>451</v>
       </c>
@@ -53633,7 +53633,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="456" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="2">
         <v>452</v>
       </c>
@@ -53724,7 +53724,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="457" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="2">
         <v>453</v>
       </c>
@@ -53815,7 +53815,7 @@
         <v>2706</v>
       </c>
     </row>
-    <row r="458" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="2">
         <v>454</v>
       </c>
@@ -53906,7 +53906,7 @@
         <v>2712</v>
       </c>
     </row>
-    <row r="459" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="2">
         <v>455</v>
       </c>
@@ -53997,7 +53997,7 @@
         <v>2717</v>
       </c>
     </row>
-    <row r="460" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="2">
         <v>456</v>
       </c>
@@ -54088,7 +54088,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="461" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="2">
         <v>457</v>
       </c>
@@ -54179,7 +54179,7 @@
         <v>2727</v>
       </c>
     </row>
-    <row r="462" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="2">
         <v>458</v>
       </c>
@@ -54270,7 +54270,7 @@
         <v>2733</v>
       </c>
     </row>
-    <row r="463" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="2">
         <v>459</v>
       </c>
@@ -54361,7 +54361,7 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="464" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="2">
         <v>460</v>
       </c>
@@ -54448,7 +54448,7 @@
         <v>2745</v>
       </c>
     </row>
-    <row r="465" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="2">
         <v>461</v>
       </c>
@@ -54539,7 +54539,7 @@
         <v>2751</v>
       </c>
     </row>
-    <row r="466" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
         <v>462</v>
       </c>
@@ -54630,7 +54630,7 @@
         <v>2756</v>
       </c>
     </row>
-    <row r="467" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="2">
         <v>463</v>
       </c>
@@ -54721,7 +54721,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="468" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="2">
         <v>464</v>
       </c>
@@ -54812,7 +54812,7 @@
         <v>2763</v>
       </c>
     </row>
-    <row r="469" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="2">
         <v>465</v>
       </c>
@@ -54903,7 +54903,7 @@
         <v>2767</v>
       </c>
     </row>
-    <row r="470" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
         <v>466</v>
       </c>
@@ -54994,7 +54994,7 @@
         <v>2770</v>
       </c>
     </row>
-    <row r="471" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="2">
         <v>467</v>
       </c>
@@ -55081,7 +55081,7 @@
         <v>2776</v>
       </c>
     </row>
-    <row r="472" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="2">
         <v>468</v>
       </c>
@@ -55169,7 +55169,7 @@
         <v>2779</v>
       </c>
     </row>
-    <row r="473" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="2">
         <v>469</v>
       </c>
@@ -55260,7 +55260,7 @@
         <v>2783</v>
       </c>
     </row>
-    <row r="474" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="2">
         <v>470</v>
       </c>
@@ -55351,7 +55351,7 @@
         <v>2787</v>
       </c>
     </row>
-    <row r="475" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="2">
         <v>471</v>
       </c>
@@ -55442,7 +55442,7 @@
         <v>2792</v>
       </c>
     </row>
-    <row r="476" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
         <v>472</v>
       </c>
@@ -55533,7 +55533,7 @@
         <v>2797</v>
       </c>
     </row>
-    <row r="477" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="2">
         <v>473</v>
       </c>
@@ -55624,7 +55624,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="478" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
         <v>474</v>
       </c>
@@ -55715,7 +55715,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="479" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="2">
         <v>475</v>
       </c>
@@ -55806,7 +55806,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="480" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
         <v>476</v>
       </c>
@@ -55897,7 +55897,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="481" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="2">
         <v>477</v>
       </c>
@@ -55988,7 +55988,7 @@
         <v>2825</v>
       </c>
     </row>
-    <row r="482" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="2">
         <v>478</v>
       </c>
@@ -56079,7 +56079,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="483" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="2">
         <v>479</v>
       </c>
@@ -56166,7 +56166,7 @@
         <v>2833</v>
       </c>
     </row>
-    <row r="484" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="2">
         <v>480</v>
       </c>
@@ -56257,7 +56257,7 @@
         <v>2839</v>
       </c>
     </row>
-    <row r="485" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="2">
         <v>481</v>
       </c>
@@ -56348,7 +56348,7 @@
         <v>2843</v>
       </c>
     </row>
-    <row r="486" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="2">
         <v>482</v>
       </c>
@@ -56439,7 +56439,7 @@
         <v>2848</v>
       </c>
     </row>
-    <row r="487" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="2">
         <v>483</v>
       </c>
@@ -56530,7 +56530,7 @@
         <v>2853</v>
       </c>
     </row>
-    <row r="488" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="2">
         <v>484</v>
       </c>
@@ -56621,7 +56621,7 @@
         <v>2859</v>
       </c>
     </row>
-    <row r="489" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="2">
         <v>485</v>
       </c>
@@ -56712,7 +56712,7 @@
         <v>2863</v>
       </c>
     </row>
-    <row r="490" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="2">
         <v>486</v>
       </c>
@@ -56803,7 +56803,7 @@
         <v>2867</v>
       </c>
     </row>
-    <row r="491" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="2">
         <v>487</v>
       </c>
@@ -56894,7 +56894,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="492" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="2">
         <v>488</v>
       </c>
@@ -56980,7 +56980,7 @@
         <v>2878</v>
       </c>
     </row>
-    <row r="493" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="2">
         <v>489</v>
       </c>
@@ -57071,7 +57071,7 @@
         <v>2883</v>
       </c>
     </row>
-    <row r="494" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="2">
         <v>490</v>
       </c>
@@ -57167,7 +57167,7 @@
         <v>2889</v>
       </c>
     </row>
-    <row r="495" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2">
         <v>491</v>
       </c>
@@ -57263,7 +57263,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="496" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="2">
         <v>492</v>
       </c>
@@ -57359,7 +57359,7 @@
         <v>2899</v>
       </c>
     </row>
-    <row r="497" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="2">
         <v>493</v>
       </c>
@@ -57455,7 +57455,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="498" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="2">
         <v>494</v>
       </c>
@@ -57546,7 +57546,7 @@
         <v>2909</v>
       </c>
     </row>
-    <row r="499" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="2">
         <v>495</v>
       </c>
@@ -57642,7 +57642,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="500" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="2">
         <v>496</v>
       </c>
@@ -57738,7 +57738,7 @@
         <v>2917</v>
       </c>
     </row>
-    <row r="501" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="2">
         <v>497</v>
       </c>
@@ -57834,7 +57834,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="502" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="2">
         <v>498</v>
       </c>
@@ -57930,7 +57930,7 @@
         <v>2931</v>
       </c>
     </row>
-    <row r="503" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="2">
         <v>499</v>
       </c>
@@ -58024,7 +58024,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="504" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="2">
         <v>500</v>
       </c>
@@ -58120,7 +58120,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="505" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="2">
         <v>501</v>
       </c>
@@ -58216,7 +58216,7 @@
         <v>2949</v>
       </c>
     </row>
-    <row r="506" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="2">
         <v>502</v>
       </c>
@@ -58312,7 +58312,7 @@
         <v>2954</v>
       </c>
     </row>
-    <row r="507" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="2">
         <v>503</v>
       </c>
@@ -58408,7 +58408,7 @@
         <v>2957</v>
       </c>
     </row>
-    <row r="508" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="2">
         <v>504</v>
       </c>
@@ -58504,7 +58504,7 @@
         <v>2962</v>
       </c>
     </row>
-    <row r="509" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="2">
         <v>505</v>
       </c>
@@ -58595,7 +58595,7 @@
         <v>2968</v>
       </c>
     </row>
-    <row r="510" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="2">
         <v>506</v>
       </c>
@@ -58691,7 +58691,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="511" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="2">
         <v>507</v>
       </c>
@@ -58787,7 +58787,7 @@
         <v>2977</v>
       </c>
     </row>
-    <row r="512" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="2">
         <v>508</v>
       </c>
@@ -58883,7 +58883,7 @@
         <v>2981</v>
       </c>
     </row>
-    <row r="513" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="2">
         <v>509</v>
       </c>
@@ -58979,7 +58979,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="514" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="2">
         <v>510</v>
       </c>
@@ -59075,7 +59075,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="515" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="2">
         <v>511</v>
       </c>
@@ -59171,7 +59171,7 @@
         <v>2996</v>
       </c>
     </row>
-    <row r="516" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2">
         <v>512</v>
       </c>
@@ -59267,7 +59267,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="517" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="2">
         <v>513</v>
       </c>
@@ -59355,7 +59355,7 @@
         <v>3002</v>
       </c>
     </row>
-    <row r="518" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="2">
         <v>514</v>
       </c>
@@ -59451,7 +59451,7 @@
         <v>3008</v>
       </c>
     </row>
-    <row r="519" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="2">
         <v>515</v>
       </c>
@@ -59547,7 +59547,7 @@
         <v>3014</v>
       </c>
     </row>
-    <row r="520" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="2">
         <v>516</v>
       </c>
@@ -59643,7 +59643,7 @@
         <v>3021</v>
       </c>
     </row>
-    <row r="521" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="2">
         <v>517</v>
       </c>
@@ -59739,7 +59739,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="522" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="2">
         <v>518</v>
       </c>
@@ -59838,7 +59838,7 @@
         <v>3030</v>
       </c>
     </row>
-    <row r="523" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="2">
         <v>519</v>
       </c>
@@ -59934,7 +59934,7 @@
         <v>2733</v>
       </c>
     </row>
-    <row r="524" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="2">
         <v>520</v>
       </c>
@@ -60025,7 +60025,7 @@
         <v>3043</v>
       </c>
     </row>
-    <row r="525" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="2">
         <v>521</v>
       </c>
@@ -60116,7 +60116,7 @@
         <v>3049</v>
       </c>
     </row>
-    <row r="526" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="2">
         <v>522</v>
       </c>
@@ -60212,7 +60212,7 @@
         <v>3053</v>
       </c>
     </row>
-    <row r="527" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="2">
         <v>523</v>
       </c>
@@ -60311,7 +60311,7 @@
         <v>3057</v>
       </c>
     </row>
-    <row r="528" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="2">
         <v>524</v>
       </c>
@@ -60402,7 +60402,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="529" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="2">
         <v>525</v>
       </c>
@@ -60493,7 +60493,7 @@
         <v>3067</v>
       </c>
     </row>
-    <row r="530" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="2">
         <v>526</v>
       </c>
@@ -60589,7 +60589,7 @@
         <v>3071</v>
       </c>
     </row>
-    <row r="531" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="2">
         <v>527</v>
       </c>
@@ -60680,7 +60680,7 @@
         <v>3077</v>
       </c>
     </row>
-    <row r="532" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="2">
         <v>528</v>
       </c>
@@ -60776,7 +60776,7 @@
         <v>3082</v>
       </c>
     </row>
-    <row r="533" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="2">
         <v>529</v>
       </c>
@@ -60867,7 +60867,7 @@
         <v>3086</v>
       </c>
     </row>
-    <row r="534" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="2">
         <v>530</v>
       </c>
@@ -60963,7 +60963,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="535" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="2">
         <v>531</v>
       </c>
@@ -61059,7 +61059,7 @@
         <v>3094</v>
       </c>
     </row>
-    <row r="536" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="2">
         <v>532</v>
       </c>
@@ -61155,7 +61155,7 @@
         <v>3098</v>
       </c>
     </row>
-    <row r="537" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="2">
         <v>533</v>
       </c>
@@ -61251,7 +61251,7 @@
         <v>3103</v>
       </c>
     </row>
-    <row r="538" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="2">
         <v>534</v>
       </c>
@@ -61347,7 +61347,7 @@
         <v>3109</v>
       </c>
     </row>
-    <row r="539" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="2">
         <v>535</v>
       </c>
@@ -61443,7 +61443,7 @@
         <v>3114</v>
       </c>
     </row>
-    <row r="540" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="2">
         <v>536</v>
       </c>
@@ -61539,7 +61539,7 @@
         <v>3118</v>
       </c>
     </row>
-    <row r="541" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="2">
         <v>537</v>
       </c>
@@ -61635,7 +61635,7 @@
         <v>3123</v>
       </c>
     </row>
-    <row r="542" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="2">
         <v>538</v>
       </c>
@@ -61731,7 +61731,7 @@
         <v>3127</v>
       </c>
     </row>
-    <row r="543" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="2">
         <v>539</v>
       </c>
@@ -61827,7 +61827,7 @@
         <v>3130</v>
       </c>
     </row>
-    <row r="544" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="2">
         <v>540</v>
       </c>
@@ -61923,7 +61923,7 @@
         <v>3136</v>
       </c>
     </row>
-    <row r="545" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="2">
         <v>541</v>
       </c>
@@ -62019,7 +62019,7 @@
         <v>3140</v>
       </c>
     </row>
-    <row r="546" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="2">
         <v>542</v>
       </c>
@@ -62115,7 +62115,7 @@
         <v>3146</v>
       </c>
     </row>
-    <row r="547" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="2">
         <v>543</v>
       </c>
@@ -62211,7 +62211,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="548" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="2">
         <v>544</v>
       </c>
@@ -62307,7 +62307,7 @@
         <v>3154</v>
       </c>
     </row>
-    <row r="549" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="2">
         <v>545</v>
       </c>
@@ -62403,7 +62403,7 @@
         <v>3159</v>
       </c>
     </row>
-    <row r="550" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="2">
         <v>546</v>
       </c>
@@ -62499,7 +62499,7 @@
         <v>3164</v>
       </c>
     </row>
-    <row r="551" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="2">
         <v>547</v>
       </c>
@@ -62595,7 +62595,7 @@
         <v>3171</v>
       </c>
     </row>
-    <row r="552" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="2">
         <v>548</v>
       </c>
@@ -62691,7 +62691,7 @@
         <v>3176</v>
       </c>
     </row>
-    <row r="553" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="2">
         <v>549</v>
       </c>
@@ -62787,7 +62787,7 @@
         <v>3180</v>
       </c>
     </row>
-    <row r="554" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="2">
         <v>550</v>
       </c>
@@ -62883,7 +62883,7 @@
         <v>3187</v>
       </c>
     </row>
-    <row r="555" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="2">
         <v>551</v>
       </c>
@@ -62979,7 +62979,7 @@
         <v>3191</v>
       </c>
     </row>
-    <row r="556" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="2">
         <v>552</v>
       </c>
@@ -63078,7 +63078,7 @@
         <v>3195</v>
       </c>
     </row>
-    <row r="557" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="2">
         <v>553</v>
       </c>
@@ -63174,7 +63174,7 @@
         <v>3201</v>
       </c>
     </row>
-    <row r="558" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="2">
         <v>554</v>
       </c>
@@ -63270,7 +63270,7 @@
         <v>2917</v>
       </c>
     </row>
-    <row r="559" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="2">
         <v>555</v>
       </c>
@@ -63366,7 +63366,7 @@
         <v>3212</v>
       </c>
     </row>
-    <row r="560" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="2">
         <v>556</v>
       </c>
@@ -63462,7 +63462,7 @@
         <v>3217</v>
       </c>
     </row>
-    <row r="561" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="2">
         <v>557</v>
       </c>
@@ -63558,7 +63558,7 @@
         <v>3221</v>
       </c>
     </row>
-    <row r="562" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="2">
         <v>558</v>
       </c>
@@ -63654,7 +63654,7 @@
         <v>3225</v>
       </c>
     </row>
-    <row r="563" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="2">
         <v>559</v>
       </c>
@@ -63753,7 +63753,7 @@
         <v>3231</v>
       </c>
     </row>
-    <row r="564" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="2">
         <v>560</v>
       </c>
@@ -63849,7 +63849,7 @@
         <v>3237</v>
       </c>
     </row>
-    <row r="565" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="2">
         <v>561</v>
       </c>
@@ -63945,7 +63945,7 @@
         <v>3244</v>
       </c>
     </row>
-    <row r="566" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="2">
         <v>562</v>
       </c>
@@ -64041,7 +64041,7 @@
         <v>3248</v>
       </c>
     </row>
-    <row r="567" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="2">
         <v>563</v>
       </c>
@@ -64137,7 +64137,7 @@
         <v>3251</v>
       </c>
     </row>
-    <row r="568" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="2">
         <v>564</v>
       </c>
@@ -64233,7 +64233,7 @@
         <v>3258</v>
       </c>
     </row>
-    <row r="569" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="2">
         <v>565</v>
       </c>
@@ -64329,7 +64329,7 @@
         <v>3262</v>
       </c>
     </row>
-    <row r="570" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="2">
         <v>566</v>
       </c>
@@ -64425,7 +64425,7 @@
         <v>3268</v>
       </c>
     </row>
-    <row r="571" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="2">
         <v>567</v>
       </c>
@@ -64521,7 +64521,7 @@
         <v>3274</v>
       </c>
     </row>
-    <row r="572" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="2">
         <v>568</v>
       </c>
@@ -64610,7 +64610,7 @@
         <v>3280</v>
       </c>
     </row>
-    <row r="573" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="2">
         <v>569</v>
       </c>
@@ -64706,7 +64706,7 @@
         <v>3285</v>
       </c>
     </row>
-    <row r="574" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="2">
         <v>570</v>
       </c>
@@ -64802,7 +64802,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="575" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="2">
         <v>571</v>
       </c>
@@ -64903,7 +64903,18 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A4:AA575" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A4:AA575" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="14">
+      <filters>
+        <filter val="Cuarto"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="15">
+      <filters>
+        <filter val="C"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
